--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,40 +437,64 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.525363588537587</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.295761479321412</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.188280789219682</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.162100333274281</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3326581786011631</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1848417429899538</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.17129059303259</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7400767273001361</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1460337538894644</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.07715657836176437</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.2037758060782868</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1521690144599092</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3467088351760086</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2358127246284749</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.295761479321412</v>
       </c>
+      <c r="C2" t="n">
+        <v>-4.993368022640259</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.162100333274281</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.165564360090414</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1848417429899538</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.06515441686030865</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7400767273001361</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4032515873081615</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.07715657836176437</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.01465567179956126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1521690144599092</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1084370207011733</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -495,6 +516,9 @@
       </c>
       <c r="B8" t="n">
         <v>0.2358127246284749</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1341971137761105</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -452,7 +452,7 @@
         <v>-5.295761479321412</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.993368022640259</v>
+        <v>-4.969492719029112</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.162100333274281</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.165564360090414</v>
+        <v>-1.160214231626897</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1848417429899538</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06515441686030865</v>
+        <v>-0.05269727303333466</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7400767273001361</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4032515873081615</v>
+        <v>-0.3898423783531488</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.07715657836176437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01465567179956126</v>
+        <v>0.01194139783248615</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1521690144599092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1084370207011733</v>
+        <v>0.1057079722102457</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2358127246284749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1341971137761105</v>
+        <v>0.1289825989495366</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.295761479321412</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.969492719029112</v>
+        <v>-4.993368022640259</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.657836315545413</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.29002747715822</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.162100333274281</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.160214231626897</v>
+        <v>-1.165564360090414</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.161884795197474</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.137909370494665</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1848417429899538</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05269727303333466</v>
+        <v>-0.06515441686030865</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02779144705041408</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09946321176602314</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7400767273001361</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3898423783531488</v>
+        <v>-0.4032515873081615</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1414060152494321</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06543112287544997</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.07715657836176437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01194139783248615</v>
+        <v>0.01465567179956126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.04421234966728196</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09831220414754076</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1521690144599092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1057079722102457</v>
+        <v>0.1084370207011733</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06892470898996189</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03132080520059642</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2358127246284749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1289825989495366</v>
+        <v>0.1341971137761105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03973246936523338</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.04956464123919342</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.29002747715822</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.901970599249331</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.137909370494665</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.097048991812919</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.09946321176602314</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1514776463734905</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.06543112287544997</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2242012057653124</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.09831220414754076</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1465600615376831</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.03132080520059642</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.003615222043298769</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +588,9 @@
       </c>
       <c r="E8" t="n">
         <v>-0.04956464123919342</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1314067788629856</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.901970599249331</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.504391449632578</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.097048991812919</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.042742985525975</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1514776463734905</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1855897437917382</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2242012057653124</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.341408266371155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1465600615376831</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1883413199731727</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.003615222043298769</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.03531776794455619</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -591,6 +612,9 @@
       </c>
       <c r="F8" t="n">
         <v>-0.1314067788629856</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.20416215162195</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.504391449632578</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.106657750521082</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.042742985525975</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.9782516849702169</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1855897437917382</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2036367735612925</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.341408266371155</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4231185547072459</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1883413199731727</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2233364139899961</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.03531776794455619</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06339648533590077</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -615,6 +636,9 @@
       </c>
       <c r="G8" t="n">
         <v>-0.20416215162195</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2668308321928052</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.106657750521082</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.716747539979482</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.9782516849702169</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9065828249101259</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2036367735612925</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2075039499932828</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4231185547072459</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4749455063008534</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2233364139899961</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2514676290316167</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06339648533590077</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.08760562015628681</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -639,6 +660,9 @@
       </c>
       <c r="H8" t="n">
         <v>-0.2668308321928052</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3189499332449963</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.716747539979482</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.341258035111896</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9065828249101259</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8304514877828709</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2075039499932828</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1990872511621203</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4749455063008534</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.5020362117788125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2514676290316167</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.27285901528807</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.08760562015628681</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1078258264921173</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -663,6 +684,9 @@
       </c>
       <c r="I8" t="n">
         <v>-0.3189499332449963</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3604947702978967</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.341258035111896</v>
       </c>
+      <c r="K2" t="n">
+        <v>-1.985453698578301</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8304514877828709</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7522536166636783</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1990872511621203</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1802545773125776</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.5020362117788125</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5090617794779416</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.27285901528807</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.2878027280980152</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1078258264921173</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1240523730694359</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -687,6 +708,9 @@
       </c>
       <c r="J8" t="n">
         <v>-0.3604947702978967</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3917844520788178</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-1.985453698578301</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.653346012134213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7522536166636783</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6740520586393215</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1802545773125776</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1528086945603169</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5090617794779416</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.5002132332700018</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.2878027280980152</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.2967275743455319</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1240523730694359</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1363849229693557</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -711,6 +732,9 @@
       </c>
       <c r="K8" t="n">
         <v>-0.3917844520788178</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.4133962314460234</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.653346012134213</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.347796745641552</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6740520586393215</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.5975749281340863</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1528086945603169</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1184547969281578</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.5002132332700018</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4792040872624638</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.2967275743455319</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.300167906306556</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1363849229693557</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.145015460890818</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -735,6 +756,9 @@
       </c>
       <c r="L8" t="n">
         <v>-0.4133962314460234</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4260909816025733</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.347796745641552</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.070636884186905</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.5975749281340863</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5242250156671987</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1184547969281578</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.07877449852669208</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4792040872624638</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4492801886854198</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.300167906306556</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.2987327025659126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.145015460890818</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1502130910650004</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -759,6 +780,9 @@
       </c>
       <c r="M8" t="n">
         <v>-0.4260909816025733</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4307505499407155</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.070636884186905</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.8227941827338482</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6044233549880282</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5242250156671987</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4550981943703185</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3910084373000415</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.07877449852669208</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03520707643816495</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.01096204100079212</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4492801886854198</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4132367660373626</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.373442009009972</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.2987327025659126</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.2930756934552439</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2838677905904577</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1502130910650004</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1523061062630485</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1516627028234634</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -783,6 +825,12 @@
       </c>
       <c r="N8" t="n">
         <v>-0.4307505499407155</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4283265539945751</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4197994409469847</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6044233549880282</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.415034034458546</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.3910084373000415</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3325170761125963</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.01096204100079212</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.05860614825962546</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.373442009009972</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3318660448951042</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.2838677905904577</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2717730059759797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1516627028234634</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1486720224681884</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -831,6 +852,9 @@
       </c>
       <c r="P8" t="n">
         <v>-0.4197994409469847</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.4061463073178035</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.415034034458546</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2536127705273434</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3325170761125963</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2799641883917819</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.05860614825962546</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.106756478301006</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3318660448951042</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.2901139071312486</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2717730059759797</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2574286835759209</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1486720224681884</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.1437270109265408</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -855,6 +876,9 @@
       </c>
       <c r="Q8" t="n">
         <v>-0.4061463073178035</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3883159742496309</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2536127705273434</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1187363704334437</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2799641883917819</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.233500384216192</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.106756478301006</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.1545969074286276</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.2901139071312486</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2494610107702409</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2574286835759209</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2414303944792905</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.1437270109265408</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.1372101175771328</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -879,6 +900,9 @@
       </c>
       <c r="R8" t="n">
         <v>-0.3883159742496309</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3672100066377554</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1187363704334437</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.008674825363500421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.233500384216192</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1931176830105044</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.1545969074286276</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.2014553082903933</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2494610107702409</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2108897218680194</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2414303944792905</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2243214011528161</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.1372101175771328</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.1294823198996402</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -903,6 +924,9 @@
       </c>
       <c r="S8" t="n">
         <v>-0.3672100066377554</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3436686283881251</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.008674825363500421</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.07851715735434549</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1931176830105044</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.1586785687138013</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.2014553082903933</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2467926160763683</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2108897218680194</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1751257848745142</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2243214011528161</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2065862560230654</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.1294823198996402</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.1208754814543926</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -927,6 +948,9 @@
       </c>
       <c r="T8" t="n">
         <v>-0.3436686283881251</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3184607336484091</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.07851715735434549</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.1449203598648284</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.1586785687138013</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.129942650905116</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2467926160763683</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2901905201207932</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1751257848745142</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1426736057107005</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2065862560230654</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.1886478930468201</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.1208754814543926</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1116877132184223</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -951,6 +972,9 @@
       </c>
       <c r="U8" t="n">
         <v>-0.3184607336484091</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2922773807249485</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.1449203598648284</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.1926828512052208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.129942650905116</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.1065906286796093</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2901905201207932</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3313385180351031</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1426736057107005</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.1138496380117864</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.1886478930468201</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1708674897581005</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1116877132184223</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1021812193740884</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -975,6 +996,9 @@
       </c>
       <c r="V8" t="n">
         <v>-0.2922773807249485</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2657282733949363</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.1926828512052208</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2239628715427396</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.1065906286796093</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08824545365962573</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3313385180351031</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3700208975049832</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.1138496380117864</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.08881335696955736</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1708674897581005</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1535463931812217</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1021812193740884</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.09258204810668597</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -999,6 +1020,9 @@
       </c>
       <c r="W8" t="n">
         <v>-0.2657282733949363</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.2393407969332126</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2239628715427396</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2408820525649966</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08824545365962573</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.07449072728559998</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3700208975049832</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.4061040570681542</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.08881335696955736</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.06759551174121503</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1535463931812217</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1369294813517685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.09258204810668597</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.08308119791040111</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1023,6 +1044,9 @@
       </c>
       <c r="X8" t="n">
         <v>-0.2393407969332126</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2135612047437763</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2408820525649966</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.245488071591196</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.07449072728559998</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06488645741873865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.4061040570681542</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.4395244485837864</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.06759551174121503</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.05012351551463362</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1369294813517685</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.1212094412639695</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.08308119791040111</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.0738366115608014</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1047,6 +1068,9 @@
       </c>
       <c r="Y8" t="n">
         <v>-0.2135612047437763</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1887575658369711</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.245488071591196</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2397257598417482</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06488645741873865</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.05898235247310996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.4395244485837864</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4702773221424048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.05012351551463362</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.03624396102268876</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.1212094412639695</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1065315596085692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.0738366115608014</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.0649756916032542</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1071,6 +1092,9 @@
       </c>
       <c r="Z8" t="n">
         <v>-0.1887575658369711</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1652240974152277</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2397257598417482</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.2254156649540289</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.05898235247310996</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.05632885850997293</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4702773221424048</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.4984063768777547</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.03624396102268876</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.02574234196939199</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1065315596085692</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.09299872899423638</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.0649756916032542</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.05659807118773182</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1095,6 +1116,9 @@
       </c>
       <c r="AA8" t="n">
         <v>-0.1652240974152277</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1431865277977853</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.2254156649540289</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2042390885885319</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.05632885850997293</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.05648615458109831</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.4984063768777547</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5239943648567751</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.02574234196939199</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.01836012310406796</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.09299872899423638</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.08067646134140705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.05659807118773182</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.04877846003724045</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1119,6 +1140,9 @@
       </c>
       <c r="AB8" t="n">
         <v>-0.1431865277977853</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.12280816480996</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2042390885885319</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.1777286687033336</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.05648615458109831</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05903132052285027</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5239943648567751</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.5471546557391356</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.01836012310406796</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.01380933988477217</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.08067646134140705</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.06959776933225241</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.04877846003724045</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.04156945229304102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1143,6 +1164,9 @@
       </c>
       <c r="AC8" t="n">
         <v>-0.12280816480996</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1041963822280177</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.1777286687033336</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.147263642253672</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05903132052285027</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.06356388387679075</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.5471546557391356</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5680237431983957</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.01380933988477217</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.01178492883861186</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.06959776933225241</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.05976782733810394</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.04156945229304102</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.03500423084109541</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1167,6 +1188,9 @@
       </c>
       <c r="AD8" t="n">
         <v>-0.1041963822280177</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.08740927898042176</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.147263642253672</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1140689996077685</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.06356388387679075</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06970994161424797</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5680237431983957</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.5867546567231229</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.01178492883861186</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.01197499705745055</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.05976782733810394</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.05116835815792111</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.03500423084109541</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.02909913411632281</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1191,6 +1212,9 @@
       </c>
       <c r="AE8" t="n">
         <v>-0.08740927898042176</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.07246230933351118</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1140689996077685</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.07921782092865956</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06970994161424797</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.0771250397131107</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.5867546567231229</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6035112315961192</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.01197499705745055</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.01406923793839303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.05116835815792111</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.0437617148552726</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.02909913411632281</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.02385607004638755</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1215,6 +1236,9 @@
       </c>
       <c r="AF8" t="n">
         <v>-0.07246230933351118</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05933472444211405</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.07921782092865956</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.04363616303657249</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.0771250397131107</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.08549598044350615</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6035112315961192</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.6184631834881293</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.01406923793839303</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.01776569344749078</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.0437617148552726</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.03749464148855303</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.02385607004638755</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.01926477155328327</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1239,6 +1260,9 @@
       </c>
       <c r="AG8" t="n">
         <v>-0.05933472444211405</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.0479757043856541</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.04363616303657249</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.008109940172755122</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.08549598044350615</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.09454171403645339</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.6184631834881293</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6317819306931387</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.01776569344749078</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.02277605311613554</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.03749464148855303</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03230170553212285</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.01926477155328327</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.01530489219080304</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1263,6 +1284,9 @@
       </c>
       <c r="AH8" t="n">
         <v>-0.0479757043856541</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03831009390415749</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.008109940172755122</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.02670668791824161</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.09454171403645339</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.1040134585109359</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6317819306931387</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.6436371055440794</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.02277605311613554</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02882966821238552</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03230170553212285</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.02810840050990313</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.01530489219080304</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01194794162579433</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1287,6 +1308,9 @@
       </c>
       <c r="AI8" t="n">
         <v>-0.03831009390415749</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.0302436839635401</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.02670668791824161</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.06028184282622791</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.1040134585109359</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1136941789360436</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.6436371055440794</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.654193696305408</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02882966821238552</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.03567644705492243</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.02810840050990313</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.02483392133614602</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01194794162579433</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.009159060559474169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1311,6 +1332,9 @@
       </c>
       <c r="AJ8" t="n">
         <v>-0.0302436839635401</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02366800502067595</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.06028184282622791</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.09219573296220504</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1136941789360436</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1233975453439542</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.654193696305408</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.6636097614216948</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.03567644705492243</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.04308878485388773</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.02483392133614602</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02239361802106371</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.009159060559474169</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.00689863443603664</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1335,6 +1356,9 @@
       </c>
       <c r="AK8" t="n">
         <v>-0.02366800502067595</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01846461679478509</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.09219573296220504</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1221300485797949</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1233975453439542</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.132966476898231</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.6636097614216948</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.6720346591581338</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.04308878485388773</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.05086266910392393</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02239361802106371</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02070113624660825</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.00689863443603664</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.005123745465211589</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1359,6 +1380,9 @@
       </c>
       <c r="AL8" t="n">
         <v>-0.01846461679478509</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.0145088940603353</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1221300485797949</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1498572096681236</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.132966476898231</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1422713687668344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.6720346591581338</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.6796077372560311</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.05086266910392393</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05881808958665162</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02070113624660825</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.01967025604070739</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.005123745465211589</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.003789463277465385</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1383,6 +1404,9 @@
       </c>
       <c r="AM8" t="n">
         <v>-0.0145088940603353</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.01167331912161456</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1498572096681236</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1752296873413561</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1422713687668344</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1512080874628405</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.6796077372560311</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.6864574291630046</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05881808958665162</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.06679887053067544</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.01967025604070739</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.01921644238392746</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.003789463277465385</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.002849975881374745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1407,6 +1428,9 @@
       </c>
       <c r="AN8" t="n">
         <v>-0.01167331912161456</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.009830299870862475</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1752296873413561</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.198169581003844</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1512080874628405</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1596958102170213</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.6864574291630046</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.6927007056351467</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.06679887053067544</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.0746720314447519</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.01921644238392746</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.01925812398783901</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.002849975881374745</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.002259564324510847</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1431,6 +1452,9 @@
       </c>
       <c r="AO8" t="n">
         <v>-0.009830299870862475</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.008854538270860397</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.198169581003844</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2186585991504535</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1596958102170213</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1676747742584656</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.6927007056351467</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.6984428330122482</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.0746720314447519</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.08232677257999767</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.01925812398783901</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.01971771858006879</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.002259564324510847</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.001973426354270371</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1455,6 +1476,9 @@
       </c>
       <c r="AP8" t="n">
         <v>-0.008854538270860397</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.008624978249230779</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2186585991504535</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2367285607877187</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1676747742584656</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.175103992728557</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.6984428330122482</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7037773922062596</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.08232677257999767</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08967317088184582</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.01971771858006879</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02052242472094558</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.001973426354270371</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.001948356229697568</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1479,6 +1500,9 @@
       </c>
       <c r="AQ8" t="n">
         <v>-0.008624978249230779</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.009026364755456586</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AS8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2367285607877187</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2524525068164574</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.175103992728557</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1819589853619886</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7037773922062596</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7087865153843232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08967317088184582</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.09664066265761084</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02052242472094558</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02160480139711483</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.001948356229697568</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.002143289488831583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1503,6 +1524,9 @@
       </c>
       <c r="AR8" t="n">
         <v>-0.009026364755456586</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.009950447427264229</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:AT8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2524525068164574</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2659364860463609</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1819589853619886</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1882295640588914</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7087865153843232</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7135413004342422</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.09664066265761084</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.1031763800138382</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02160480139711483</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.02290315736291466</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.002143289488831583</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.002519722821637658</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1527,6 +1548,9 @@
       </c>
       <c r="AS8" t="n">
         <v>-0.009950447427264229</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.01129686317272556</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_7.xlsx
+++ b/predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2659364860463609</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2773120586164731</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1882295640588914</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1939177060587252</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7135413004342422</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7181023665313674</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.1031763800138382</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1092433994189908</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.02290315736291466</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.02436177244009638</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.002519722821637658</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.0030420201816769</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1551,6 +1572,9 @@
       </c>
       <c r="AT8" t="n">
         <v>-0.01129686317272556</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.01297373216511224</v>
       </c>
     </row>
   </sheetData>
